--- a/DOWNLOADS/EDITAIS/U_926724_E_900012025_02-10-2025_10h00m/U_926724_E_900012025_02-10-2025_10h00m_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_926724_E_900012025_02-10-2025_10h00m/U_926724_E_900012025_02-10-2025_10h00m_master.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="32">
   <si>
     <t>Nº</t>
   </si>
@@ -22,6 +22,9 @@
     <t>DESCRICAO</t>
   </si>
   <si>
+    <t>REFERENCIA</t>
+  </si>
+  <si>
     <t>QTDE</t>
   </si>
   <si>
@@ -98,57 +101,6 @@
   </si>
   <si>
     <t>Aparelho Telefônico Celular Aparelho Telefônico Celular Modelo: Samsung/ Smartphone Dual Chip, Quantidade Linhas Telefônicas: 2UN, Características Adicionais: 256 Gb, 5g Tela 6.6, 8gb Ram, Cor: Preto, Acessórios: Carregador De Bateria, Capacidade Bateria: 5.000MAH</t>
-  </si>
-  <si>
-    <t>5506,60</t>
-  </si>
-  <si>
-    <t>6279,50</t>
-  </si>
-  <si>
-    <t>1486,00</t>
-  </si>
-  <si>
-    <t>376,35</t>
-  </si>
-  <si>
-    <t>1977,40</t>
-  </si>
-  <si>
-    <t>538,00</t>
-  </si>
-  <si>
-    <t>43,00</t>
-  </si>
-  <si>
-    <t>46,00</t>
-  </si>
-  <si>
-    <t>1210,39</t>
-  </si>
-  <si>
-    <t>5230,00</t>
-  </si>
-  <si>
-    <t>12559,00</t>
-  </si>
-  <si>
-    <t>14860,00</t>
-  </si>
-  <si>
-    <t>2152,00</t>
-  </si>
-  <si>
-    <t>430,00</t>
-  </si>
-  <si>
-    <t>552,00</t>
-  </si>
-  <si>
-    <t>18155,85</t>
-  </si>
-  <si>
-    <t>15690,00</t>
   </si>
   <si>
     <t>Unidade</t>
@@ -515,13 +467,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -546,265 +498,268 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>5506.6</v>
+      </c>
+      <c r="F2">
+        <v>5506.6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>6279.5</v>
+      </c>
+      <c r="F3">
+        <v>12559</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>1486</v>
+      </c>
+      <c r="F4">
+        <v>14860</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>376.35</v>
+      </c>
+      <c r="F5">
+        <v>376.35</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1977.4</v>
+      </c>
+      <c r="F6">
+        <v>1977.4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>538</v>
+      </c>
+      <c r="F7">
+        <v>2152</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>43</v>
+      </c>
+      <c r="F8">
+        <v>430</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>46</v>
+      </c>
+      <c r="F9">
+        <v>552</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10">
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <v>1210.39</v>
+      </c>
+      <c r="F10">
+        <v>18155.85</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B11" t="s">
         <v>28</v>
       </c>
-      <c r="E2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10">
-        <v>15</v>
-      </c>
-      <c r="D10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11">
+      <c r="D11">
         <v>3</v>
       </c>
-      <c r="D11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" t="s">
-        <v>45</v>
+      <c r="E11">
+        <v>5230</v>
+      </c>
+      <c r="F11">
+        <v>15690</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>30</v>
+      </c>
+      <c r="I11" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
